--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl5</t>
   </si>
   <si>
     <t>Ccr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.35666844654806</v>
+        <v>2.202688333333333</v>
       </c>
       <c r="H2">
-        <v>4.35666844654806</v>
+        <v>6.608065</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.194626115952434</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1946261159524339</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0646303166751848</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N2">
-        <v>0.0646303166751848</v>
+        <v>0.362231</v>
       </c>
       <c r="O2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q2">
-        <v>0.2815728613491866</v>
+        <v>0.2659606658905555</v>
       </c>
       <c r="R2">
-        <v>0.2815728613491866</v>
+        <v>2.393645993015</v>
       </c>
       <c r="S2">
-        <v>0.0006120094707698289</v>
+        <v>0.0002118208771514249</v>
       </c>
       <c r="T2">
-        <v>0.0006120094707698289</v>
+        <v>0.0002118208771514249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.35666844654806</v>
+        <v>2.202688333333333</v>
       </c>
       <c r="H3">
-        <v>4.35666844654806</v>
+        <v>6.608065</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.194626115952434</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1946261159524339</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5918509058762</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N3">
-        <v>47.5918509058762</v>
+        <v>146.580945</v>
       </c>
       <c r="O3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q3">
-        <v>207.3419151544505</v>
+        <v>107.6240458134916</v>
       </c>
       <c r="R3">
-        <v>207.3419151544505</v>
+        <v>968.6164123214248</v>
       </c>
       <c r="S3">
-        <v>0.4506656470870311</v>
+        <v>0.08571575691640079</v>
       </c>
       <c r="T3">
-        <v>0.4506656470870311</v>
+        <v>0.08571575691640078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,1115 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>2.202688333333333</v>
+      </c>
+      <c r="H4">
+        <v>6.608065</v>
+      </c>
+      <c r="I4">
+        <v>0.194626115952434</v>
+      </c>
+      <c r="J4">
+        <v>0.1946261159524339</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N4">
+        <v>185.724758</v>
+      </c>
+      <c r="O4">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P4">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q4">
+        <v>136.3645858859189</v>
+      </c>
+      <c r="R4">
+        <v>1227.28127297327</v>
+      </c>
+      <c r="S4">
+        <v>0.1086057823551715</v>
+      </c>
+      <c r="T4">
+        <v>0.1086057823551715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>2.202688333333333</v>
+      </c>
+      <c r="H5">
+        <v>6.608065</v>
+      </c>
+      <c r="I5">
+        <v>0.194626115952434</v>
+      </c>
+      <c r="J5">
+        <v>0.1946261159524339</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.15862</v>
+      </c>
+      <c r="O5">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P5">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q5">
+        <v>0.1164634744777778</v>
+      </c>
+      <c r="R5">
+        <v>1.0481712703</v>
+      </c>
+      <c r="S5">
+        <v>9.275580371022643E-05</v>
+      </c>
+      <c r="T5">
+        <v>9.275580371022641E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.833451</v>
+      </c>
+      <c r="H6">
+        <v>14.500353</v>
+      </c>
+      <c r="I6">
+        <v>0.4270762143425078</v>
+      </c>
+      <c r="J6">
+        <v>0.4270762143425077</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1207436666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.362231</v>
+      </c>
+      <c r="O6">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="P6">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="Q6">
+        <v>0.5836085963936666</v>
+      </c>
+      <c r="R6">
+        <v>5.252477367542999</v>
+      </c>
+      <c r="S6">
+        <v>0.0004648073969407529</v>
+      </c>
+      <c r="T6">
+        <v>0.0004648073969407528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4.35666844654806</v>
-      </c>
-      <c r="H4">
-        <v>4.35666844654806</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>57.946977158392</v>
-      </c>
-      <c r="N4">
-        <v>57.946977158392</v>
-      </c>
-      <c r="O4">
-        <v>0.5487223434421992</v>
-      </c>
-      <c r="P4">
-        <v>0.5487223434421992</v>
-      </c>
-      <c r="Q4">
-        <v>252.4557669588076</v>
-      </c>
-      <c r="R4">
-        <v>252.4557669588076</v>
-      </c>
-      <c r="S4">
-        <v>0.5487223434421992</v>
-      </c>
-      <c r="T4">
-        <v>0.5487223434421992</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.833451</v>
+      </c>
+      <c r="H7">
+        <v>14.500353</v>
+      </c>
+      <c r="I7">
+        <v>0.4270762143425078</v>
+      </c>
+      <c r="J7">
+        <v>0.4270762143425077</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>48.86031499999999</v>
+      </c>
+      <c r="N7">
+        <v>146.580945</v>
+      </c>
+      <c r="O7">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="P7">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="Q7">
+        <v>236.163938397065</v>
+      </c>
+      <c r="R7">
+        <v>2125.475445573585</v>
+      </c>
+      <c r="S7">
+        <v>0.1880896651213333</v>
+      </c>
+      <c r="T7">
+        <v>0.1880896651213332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.833451</v>
+      </c>
+      <c r="H8">
+        <v>14.500353</v>
+      </c>
+      <c r="I8">
+        <v>0.4270762143425078</v>
+      </c>
+      <c r="J8">
+        <v>0.4270762143425077</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N8">
+        <v>185.724758</v>
+      </c>
+      <c r="O8">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P8">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q8">
+        <v>299.2305057599527</v>
+      </c>
+      <c r="R8">
+        <v>2693.074551839574</v>
+      </c>
+      <c r="S8">
+        <v>0.2383182038904215</v>
+      </c>
+      <c r="T8">
+        <v>0.2383182038904215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.833451</v>
+      </c>
+      <c r="H9">
+        <v>14.500353</v>
+      </c>
+      <c r="I9">
+        <v>0.4270762143425078</v>
+      </c>
+      <c r="J9">
+        <v>0.4270762143425077</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.15862</v>
+      </c>
+      <c r="O9">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P9">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q9">
+        <v>0.2555606658733334</v>
+      </c>
+      <c r="R9">
+        <v>2.30004599286</v>
+      </c>
+      <c r="S9">
+        <v>0.000203537933812242</v>
+      </c>
+      <c r="T9">
+        <v>0.000203537933812242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.031759666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.095279</v>
+      </c>
+      <c r="I10">
+        <v>0.09116467976013157</v>
+      </c>
+      <c r="J10">
+        <v>0.09116467976013155</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1207436666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.362231</v>
+      </c>
+      <c r="O10">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="P10">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="Q10">
+        <v>0.1245784452721111</v>
+      </c>
+      <c r="R10">
+        <v>1.121206007449</v>
+      </c>
+      <c r="S10">
+        <v>9.921886555419558E-05</v>
+      </c>
+      <c r="T10">
+        <v>9.921886555419556E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.031759666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.095279</v>
+      </c>
+      <c r="I11">
+        <v>0.09116467976013157</v>
+      </c>
+      <c r="J11">
+        <v>0.09116467976013155</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>48.86031499999999</v>
+      </c>
+      <c r="N11">
+        <v>146.580945</v>
+      </c>
+      <c r="O11">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="P11">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="Q11">
+        <v>50.41210231762832</v>
+      </c>
+      <c r="R11">
+        <v>453.7089208586549</v>
+      </c>
+      <c r="S11">
+        <v>0.04015005638601317</v>
+      </c>
+      <c r="T11">
+        <v>0.04015005638601316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.031759666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.095279</v>
+      </c>
+      <c r="I12">
+        <v>0.09116467976013157</v>
+      </c>
+      <c r="J12">
+        <v>0.09116467976013155</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N12">
+        <v>185.724758</v>
+      </c>
+      <c r="O12">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P12">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q12">
+        <v>63.87443813527578</v>
+      </c>
+      <c r="R12">
+        <v>574.869943217482</v>
+      </c>
+      <c r="S12">
+        <v>0.05087195682889513</v>
+      </c>
+      <c r="T12">
+        <v>0.05087195682889512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.031759666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.095279</v>
+      </c>
+      <c r="I13">
+        <v>0.09116467976013157</v>
+      </c>
+      <c r="J13">
+        <v>0.09116467976013155</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.15862</v>
+      </c>
+      <c r="O13">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P13">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q13">
+        <v>0.05455257277555556</v>
+      </c>
+      <c r="R13">
+        <v>0.49097315498</v>
+      </c>
+      <c r="S13">
+        <v>4.344767966906892E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.344767966906892E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>2.827656666666666</v>
+      </c>
+      <c r="H14">
+        <v>8.48297</v>
+      </c>
+      <c r="I14">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="J14">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1207436666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.362231</v>
+      </c>
+      <c r="O14">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="P14">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="Q14">
+        <v>0.3414216340077777</v>
+      </c>
+      <c r="R14">
+        <v>3.07279470607</v>
+      </c>
+      <c r="S14">
+        <v>0.0002719207735167894</v>
+      </c>
+      <c r="T14">
+        <v>0.0002719207735167894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>2.827656666666666</v>
+      </c>
+      <c r="H15">
+        <v>8.48297</v>
+      </c>
+      <c r="I15">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="J15">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>48.86031499999999</v>
+      </c>
+      <c r="N15">
+        <v>146.580945</v>
+      </c>
+      <c r="O15">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="P15">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="Q15">
+        <v>138.1601954451833</v>
+      </c>
+      <c r="R15">
+        <v>1243.44175900665</v>
+      </c>
+      <c r="S15">
+        <v>0.1100358719911382</v>
+      </c>
+      <c r="T15">
+        <v>0.1100358719911382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>2.827656666666666</v>
+      </c>
+      <c r="H16">
+        <v>8.48297</v>
+      </c>
+      <c r="I16">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="J16">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N16">
+        <v>185.724758</v>
+      </c>
+      <c r="O16">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P16">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q16">
+        <v>175.0552833745844</v>
+      </c>
+      <c r="R16">
+        <v>1575.49755037126</v>
+      </c>
+      <c r="S16">
+        <v>0.139420479905305</v>
+      </c>
+      <c r="T16">
+        <v>0.139420479905305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>2.827656666666666</v>
+      </c>
+      <c r="H17">
+        <v>8.48297</v>
+      </c>
+      <c r="I17">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="J17">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.15862</v>
+      </c>
+      <c r="O17">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P17">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q17">
+        <v>0.1495076334888889</v>
+      </c>
+      <c r="R17">
+        <v>1.3455687014</v>
+      </c>
+      <c r="S17">
+        <v>0.0001190733898954897</v>
+      </c>
+      <c r="T17">
+        <v>0.0001190733898954897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.4219816666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.265945</v>
+      </c>
+      <c r="I18">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="J18">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1207436666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.362231</v>
+      </c>
+      <c r="O18">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="P18">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="Q18">
+        <v>0.05095161369944444</v>
+      </c>
+      <c r="R18">
+        <v>0.458564523295</v>
+      </c>
+      <c r="S18">
+        <v>4.057974313591961E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.057974313591961E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4219816666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.265945</v>
+      </c>
+      <c r="I19">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="J19">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.86031499999999</v>
+      </c>
+      <c r="N19">
+        <v>146.580945</v>
+      </c>
+      <c r="O19">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="P19">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="Q19">
+        <v>20.61815715755833</v>
+      </c>
+      <c r="R19">
+        <v>185.563414418025</v>
+      </c>
+      <c r="S19">
+        <v>0.01642106030880946</v>
+      </c>
+      <c r="T19">
+        <v>0.01642106030880946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4219816666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.265945</v>
+      </c>
+      <c r="I20">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="J20">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N20">
+        <v>185.724758</v>
+      </c>
+      <c r="O20">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P20">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q20">
+        <v>26.12414764070111</v>
+      </c>
+      <c r="R20">
+        <v>235.11732876631</v>
+      </c>
+      <c r="S20">
+        <v>0.02080623407058157</v>
+      </c>
+      <c r="T20">
+        <v>0.02080623407058157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4219816666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.265945</v>
+      </c>
+      <c r="I21">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="J21">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.15862</v>
+      </c>
+      <c r="O21">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P21">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q21">
+        <v>0.02231157732222222</v>
+      </c>
+      <c r="R21">
+        <v>0.2008041959</v>
+      </c>
+      <c r="S21">
+        <v>1.776976254439728E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.776976254439728E-05</v>
       </c>
     </row>
   </sheetData>
